--- a/Country_Data/Greece_Arrivals.xlsx
+++ b/Country_Data/Greece_Arrivals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Easy_Jet\Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BAFBEB-7C8C-4571-BE9D-617F61C084C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971F759-CB5C-493A-8B2C-4A2BF99BBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">     TABLE 5 : Arrivals of non-residents in hotels, similar establishments and camping (by country of residence)</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Time: YEAR  2019</t>
-  </si>
-  <si>
-    <t>https://www.statistics.gr/en/greece-in-figures?p_p_id=com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_mvcPath=%2Fview_content.jsp&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_assetEntryId=17069628&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_type=document</t>
   </si>
   <si>
     <t>Total_Bed</t>
@@ -413,14 +410,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,7 +761,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -780,32 +777,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
-      <c r="B2" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>60</v>
+      <c r="A4" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -825,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2105,11 +2100,10 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.statistics.gr/en/greece-in-figures?p_p_id=com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_mvcPath=%2Fview_content.jsp&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_assetEntryId=17069628&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_type=document" xr:uid="{EE09CBFD-20FD-4BDA-9248-E29B47D0720F}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.statistics.gr/en/greece-in-figures?p_p_id=com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_mvcPath=%2Fview_content.jsp&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_assetEntryId=17020463&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_type=document" xr:uid="{29C00929-2CF8-490E-A248-53D047FF0872}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.statistics.gr/en/greece-in-figures?p_p_id=com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_mvcPath=%2Fview_content.jsp&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_assetEntryId=17020463&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_type=document" xr:uid="{29C00929-2CF8-490E-A248-53D047FF0872}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Country_Data/Greece_Arrivals.xlsx
+++ b/Country_Data/Greece_Arrivals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971F759-CB5C-493A-8B2C-4A2BF99BBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD428069-4447-4578-A199-76DB02D20500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="2" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">    Slovenia</t>
   </si>
   <si>
-    <t xml:space="preserve">    Slovak Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Romania</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t xml:space="preserve">    Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">    Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    United Kingdom</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>https://www.statistics.gr/en/greece-in-figures?p_p_id=com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_mvcPath=%2Fview_content.jsp&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_assetEntryId=17020463&amp;_com_liferay_portal_search_web_portlet_SearchPortlet_INSTANCE_3_type=document</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slovakia</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -800,7 +800,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -820,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="13">
         <v>277848</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="13">
         <v>383261</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="13">
         <v>292429</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="13">
         <v>1507261</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="13">
         <v>2710633</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="13">
         <v>340374</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="13">
         <v>33169</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="13">
         <v>2745638</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B17" s="13">
         <v>83389</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="13">
         <v>300252</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13">
         <v>909692</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="13">
         <v>25586</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="13">
         <v>227544</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="13">
         <v>30160</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="13">
         <v>52028</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="13">
         <v>28315</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="13">
         <v>8399</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13">
         <v>726621</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="13">
         <v>97197</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="13">
         <v>745700</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="13">
         <v>48348</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="13">
         <v>457864</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B31" s="13">
         <v>93037</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="13">
         <v>1406790</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="13">
         <v>229440</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="13">
         <v>315876</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="13">
         <v>23972</v>
